--- a/doc/NestJS.xlsx
+++ b/doc/NestJS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="概要" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="各種インストール" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <r>
       <rPr>
@@ -126,6 +126,34 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Windows Git</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">の注意点！</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">改行コードが勝手に変わるので以下のコマンドを実行する</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> git config --global core.autocrlf false</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="128"/>
@@ -798,6 +826,51 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">oas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yarn add @nestjs/swagger swagger-ui-express js-yaml  @types/js-yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OAS形式のIF仕様書作成のため</t>
+  </si>
+  <si>
+    <t xml:space="preserve">superagent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yarn add superagent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Http Client。軽量なのを選択。esmoduleで作るならば、gotを試したい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yarn add class-validator class-transformer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validaitonのライブラリ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">msw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yarn add msw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API mocking library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cross-env</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yarn add cross-env</t>
+  </si>
+  <si>
+    <t xml:space="preserve">環境切り替え用</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -836,12 +909,6 @@
       </rPr>
       <t xml:space="preserve">の注意点！</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">改行コードが勝手に変わるので以下のコマンドを実行する</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> git config --global core.autocrlf false</t>
   </si>
 </sst>
 </file>
@@ -851,7 +918,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="游ゴシック"/>
@@ -879,6 +946,20 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC9211E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC9211E"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
@@ -954,7 +1035,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -969,6 +1050,22 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1048,15 +1145,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.32"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1079,34 +1177,52 @@
         <v>3</v>
       </c>
     </row>
+    <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="1"/>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="1" t="s">
-        <v>4</v>
+      <c r="B7" s="1"/>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1" t="s">
-        <v>5</v>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1125,190 +1241,238 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
+      <c r="A1" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="0" t="s">
-        <v>10</v>
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
+      <c r="B5" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="s">
-        <v>17</v>
+      <c r="B6" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="s">
-        <v>18</v>
+      <c r="A7" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
-        <v>19</v>
+      <c r="A8" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="1" t="s">
-        <v>21</v>
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>23</v>
+      <c r="B12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>25</v>
+      <c r="A13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>27</v>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>29</v>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>31</v>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>33</v>
+      <c r="A17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>35</v>
+      <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>40</v>
+      <c r="B20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>46</v>
+      <c r="A23" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="https://azure.microsoft.com/ja-jp/products/visual-studio-code/"/>
-    <hyperlink ref="C4" r:id="rId2" display="https://git-scm.com/"/>
-    <hyperlink ref="C5" r:id="rId3" display="https://nodejs.org/ja/"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://azure.microsoft.com/ja-jp/products/visual-studio-code/"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://git-scm.com/"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://nodejs.org/ja/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
@@ -1323,21 +1487,21 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
@@ -1352,31 +1516,31 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>

--- a/doc/NestJS.xlsx
+++ b/doc/NestJS.xlsx
@@ -10,8 +10,8 @@
   <sheets>
     <sheet name="概要" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="各種インストール" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="注意事項" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
   <si>
     <r>
       <rPr>
@@ -874,6 +874,35 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Windows Git</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">の注意点！</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">PowerShell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「このシステムではスクリプトの実行が無効になっているため、～」が出た場合、管理者権限で以下のコマンドを実行する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PowerShell Set-ExecutionPolicy RemoteSigned</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="游ゴシック"/>
         <family val="2"/>
         <charset val="128"/>
@@ -888,26 +917,6 @@
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">Plugin</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Windows Git</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">の注意点！</t>
     </r>
   </si>
 </sst>
@@ -1151,7 +1160,7 @@
       <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.32"/>
@@ -1243,11 +1252,11 @@
   </sheetPr>
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.83"/>
@@ -1366,18 +1375,18 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
         <v>42</v>
       </c>
@@ -1485,17 +1494,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1514,27 +1548,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
+      <c r="A1" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
